--- a/data_excel/636.xlsx
+++ b/data_excel/636.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI_DATA\Revise_final\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>和平電影院</t>
   </si>
@@ -97,15 +97,6 @@
   </si>
   <si>
     <t>95</t>
-  </si>
-  <si>
-    <t>和</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>連接詞</t>
   </si>
   <si>
     <t>元</t>
@@ -157,6 +148,10 @@
   </si>
   <si>
     <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +177,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -221,27 +224,27 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -249,11 +252,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -559,7 +564,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -672,16 +677,16 @@
         <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -695,18 +700,18 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -715,24 +720,24 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -743,7 +748,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -752,7 +757,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -791,12 +796,12 @@
         <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -807,7 +812,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -817,106 +822,18 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
+      <c r="A16" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="3"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
